--- a/Arash_docs/Users (res.xlsx
+++ b/Arash_docs/Users (res.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>سرمایه گزاران</t>
+  </si>
+  <si>
+    <t>سرمایه</t>
   </si>
   <si>
     <t>گزاران</t>
@@ -299,7 +302,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -308,6 +311,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="2"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
@@ -1402,7 +1408,7 @@
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="4" width="30.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5312" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1410,255 +1416,255 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="D3" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s" s="4">
+      <c r="A4" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="B4" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="4">
+      <c r="C4" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="4">
+      <c r="D4" t="s" s="5">
         <v>17</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="4">
+      <c r="A5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="C5" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="4">
+      <c r="B5" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="C5" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="5">
         <v>21</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="4">
+      <c r="A6" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="C6" t="s" s="4">
+      <c r="B6" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="D6" t="s" s="4">
+      <c r="C6" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="E6" t="s" s="4">
+      <c r="D6" t="s" s="5">
         <v>26</v>
+      </c>
+      <c r="E6" t="s" s="5">
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s" s="4">
+      <c r="A7" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C7" t="s" s="4">
+      <c r="B7" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="D7" t="s" s="4">
+      <c r="C7" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="E7" t="s" s="4">
+      <c r="D7" t="s" s="5">
         <v>31</v>
+      </c>
+      <c r="E7" t="s" s="5">
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s" s="4">
+      <c r="A8" t="s" s="4">
         <v>33</v>
       </c>
-      <c r="C8" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s" s="4">
+      <c r="B8" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="E8" t="s" s="4">
+      <c r="C8" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s" s="5">
         <v>35</v>
+      </c>
+      <c r="E8" t="s" s="5">
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s" s="4">
+      <c r="A9" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="C9" t="s" s="4">
+      <c r="B9" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="D9" t="s" s="5">
         <v>40</v>
+      </c>
+      <c r="E9" t="s" s="5">
+        <v>41</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s" s="4">
+      <c r="A10" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="B10" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="D10" t="s" s="4">
+      <c r="C10" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="E10" t="s" s="4">
+      <c r="D10" t="s" s="5">
         <v>45</v>
+      </c>
+      <c r="E10" t="s" s="5">
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s" s="4">
+      <c r="A11" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="B11" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="C11" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="D11" t="s" s="5">
         <v>50</v>
+      </c>
+      <c r="E11" t="s" s="5">
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s" s="4">
+      <c r="A12" t="s" s="4">
         <v>52</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="B12" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="C12" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="D12" t="s" s="5">
         <v>55</v>
+      </c>
+      <c r="E12" t="s" s="5">
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s" s="4">
+      <c r="A13" t="s" s="4">
         <v>57</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="B13" t="s" s="5">
         <v>58</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="C13" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="D13" t="s" s="5">
         <v>60</v>
+      </c>
+      <c r="E13" t="s" s="5">
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s" s="4">
+      <c r="A14" t="s" s="4">
         <v>62</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="B14" t="s" s="5">
         <v>63</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="C14" t="s" s="5">
         <v>64</v>
       </c>
-      <c r="E14" t="s" s="4">
+      <c r="D14" t="s" s="5">
         <v>65</v>
+      </c>
+      <c r="E14" t="s" s="5">
+        <v>66</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s" s="4">
+      <c r="A15" t="s" s="4">
         <v>67</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="B15" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="D15" t="s" s="4">
+      <c r="C15" t="s" s="5">
         <v>69</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="D15" t="s" s="5">
         <v>70</v>
+      </c>
+      <c r="E15" t="s" s="5">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
